--- a/output/kendamil.xlsx
+++ b/output/kendamil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,17 +469,7 @@
           <t>Kendamil Organic First Infant Milk Stage 1 From Birth - 800g</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>&lt;div&gt;
 &lt;div&gt;
@@ -519,72 +509,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;span style="color: #fa0808;"&gt;&lt;/span&gt;&lt;/strong&gt;&lt;a href="https://www.uyyaala.com/pages/refund-policy"&gt;&lt;strong&gt;&lt;span &gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy:&lt;/span&gt; &lt;/span&gt;&lt;span style="color: #f50b0b;"&gt;Click Here&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Kendamil</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>kendamil-organic-first-infant-milk-stage-1-from-birth-800g</t>
+        </is>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Kendamil</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>kendamil-organic-first-infant-milk-stage-1-from-birth-800g</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Kendamil Organic Follow on Milk Formula Stage 2 - 800g, 6-12 months +</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>&lt;div&gt;
 &lt;div&gt;
@@ -624,72 +574,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;span style="color: #fa0808;"&gt;&lt;/span&gt;&lt;/strong&gt;&lt;a href="https://www.uyyaala.com/pages/refund-policy"&gt;&lt;strong&gt;&lt;span &gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy:&lt;/span&gt; &lt;/span&gt;&lt;span style="color: #f50b0b;"&gt;Click Here&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Kendamil</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>kendamil-organic-follow-on-milk-formula-stage-2-800g-6-12-months</t>
+        </is>
+      </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Kendamil</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>kendamil-organic-follow-on-milk-formula-stage-2-800g-6-12-months</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Kendamil Organic Toddler Milk Formula Stage 3 - 800g, 12-36 months +</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>&lt;div&gt;
 &lt;div&gt;
@@ -729,72 +639,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;span style="color: #fa0808;"&gt;&lt;/span&gt;&lt;/strong&gt;&lt;a href="https://www.uyyaala.com/pages/refund-policy"&gt;&lt;strong&gt;&lt;span &gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy:&lt;/span&gt; &lt;/span&gt;&lt;span style="color: #f50b0b;"&gt;Click Here&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Kendamil</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>kendamil-organic-toddler-milk-formula-stage-3-800g-12-36-months</t>
+        </is>
+      </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Kendamil</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>kendamil-organic-toddler-milk-formula-stage-3-800g-12-36-months</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Kendamil Follow-On Milk Stage 2 From 6-12 Months - 900g</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>&lt;div&gt;
 &lt;div&gt;
@@ -835,72 +705,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;span style="color: #fa0808;"&gt;&lt;/span&gt;&lt;/strong&gt;&lt;a href="https://www.uyyaala.com/pages/refund-policy"&gt;&lt;strong&gt;&lt;span &gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy:&lt;/span&gt; &lt;/span&gt;&lt;span style="color: #f50b0b;"&gt;Click Here&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Kendamil</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>kendamil-follow-on-milk-stage-2-from-6-12-months-900g</t>
+        </is>
+      </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Kendamil</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>kendamil-follow-on-milk-stage-2-from-6-12-months-900g</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Kendamil First Infant Milk Stage 1 From Birth - 900g</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>&lt;div&gt;
 &lt;div&gt;
@@ -959,72 +789,32 @@
 --&gt;&lt;/style&gt;</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Kendamil</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>kendamil-first-infant-milk-stage-1-from-birth-900g</t>
+        </is>
+      </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Kendamil</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>kendamil-first-infant-milk-stage-1-from-birth-900g</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Kendamil Toddler Milk Stage 3 From 12-36 Months - 900g</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>&lt;div&gt;
 &lt;div&gt;
@@ -1065,47 +855,17 @@
 &lt;p&gt;&lt;strong&gt;&lt;span style="color: #fa0808;"&gt;&lt;/span&gt;&lt;/strong&gt;&lt;a href="https://www.uyyaala.com/pages/refund-policy"&gt;&lt;strong&gt;&lt;span &gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy:&lt;/span&gt; &lt;/span&gt;&lt;span style="color: #f50b0b;"&gt;Click Here&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Kendamil</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Infant Formula</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>kendamil-toddler-milk-stage-3-from-12-36-months-900g</t>
         </is>
